--- a/reporte_prestamos_por_retornar.xlsx
+++ b/reporte_prestamos_por_retornar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,69 @@
         <v>8145796648</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10/27/2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Antonio Garcia</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8117539072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10/27/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alberto Cano</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8120688543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JESUS MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8110786616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
